--- a/biology/Botanique/Ginkgophyta/Ginkgophyta.xlsx
+++ b/biology/Botanique/Ginkgophyta/Ginkgophyta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La division des Ginkgophyta (formant traditionnellement, avec les Pteridospermatophyta et les Cycadophyta, les préspermaphytes) ne comprend aujourd'hui qu'une seule classe, les Ginkgopsida, elle-même composée d'un seul ordre, les Ginkgoales, et de deux familles connues, la famille actuelle des Ginkgoaceae, et la famille fossile des Trichopityaceae.
 C'est une division de gymnospermes (ancienne classification phylogénétique) apparu durant le jurassique supérieur dont le seul représentant actuel est l'espèce Ginkgo biloba (genre Ginkgo).  
@@ -512,11 +524,13 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces sont dioïques (sexes séparés).
 Après une accumulation de réserves dans l'ovule celui-ci tombe et est fécondé sur le sol.
-Les ovules sont regroupés par deux (rarement par quatre)[1].
+Les ovules sont regroupés par deux (rarement par quatre).
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Branches
-Il y a deux types de branches, celles à croissance infinie et celles à croissance limitée. Ces dernières ont un feuillage plus dense à certains endroits et portent les organes de reproduction. Celles qui grandissent en permanence ont des feuilles aux nœuds et déparées.
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a deux types de branches, celles à croissance infinie et celles à croissance limitée. Ces dernières ont un feuillage plus dense à certains endroits et portent les organes de reproduction. Celles qui grandissent en permanence ont des feuilles aux nœuds et déparées.
 </t>
         </is>
       </c>
@@ -577,7 +596,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains auteurs utilisent l'orthographe Ginkgoophyta pour désigner la division.
 </t>
@@ -608,7 +629,9 @@
           <t>Principaux genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Famille des Ginkgoaceae
 Baiera †
